--- a/StateOfPractice/DomainMeasurements/InverseKinematics-Ryan/Software_List.xlsx
+++ b/StateOfPractice/DomainMeasurements/InverseKinematics-Ryan/Software_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course\ResearchProject\AIMSS\StateOfPractice\DomainMeasurements\InverseKinematics-Ryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D9439-9B4A-4EDF-9C1D-824508253714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8AEB01-9BD3-4257-863A-1A03D8E440C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2279FB42-8099-4FD6-9EF2-F606B56203F5}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2279FB42-8099-4FD6-9EF2-F606B56203F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,253 +34,341 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Software / Library</t>
   </si>
   <si>
+    <t>Widely used numerical IK/Jacobian solver in ROS and industry; mature implementation, serves as a baseline reference.</t>
+  </si>
+  <si>
+    <t>TRAC-IK</t>
+  </si>
+  <si>
+    <t>Faster and more reliable than KDL in ROS contexts, higher success rates, commonly used as a drop-in replacement.</t>
+  </si>
+  <si>
+    <t>Analytical IK “compiler” that generates highly optimized C++ solvers for specific arms; widely adopted in MoveIt.</t>
+  </si>
+  <si>
+    <t>Analytical IK for 6-DOF offset wrist manipulators, very fast and supports many industrial arms.</t>
+  </si>
+  <si>
+    <t>MoveIt/MoveIt2 plugin from PickNik; supports multiple constraints, weight configuration, and offers good performance and usability.</t>
+  </si>
+  <si>
+    <t>Levenberg–Marquardt numerical IK plugin, the traditional baseline solver in MoveIt.</t>
+  </si>
+  <si>
+    <t>Kinematics interface of the Tesseract ecosystem, integrates multiple solvers (KDL, OPW, etc.) in a production-ready framework.</t>
+  </si>
+  <si>
+    <t>Optimization-based multi-objective IK solver (MoveIt plugin), well-suited for complex constraint scenarios.</t>
+  </si>
+  <si>
+    <t>Null-Space Saturation (SNS) IK solver; supports prioritized tasks and joint limit handling.</t>
+  </si>
+  <si>
+    <t>Constraint-based, set-based task-space IK framework supporting multiple task priorities and closed-loop control.</t>
+  </si>
+  <si>
+    <t>Differential IK library built on Pinocchio; well-suited for multi-chain and humanoid robots.</t>
+  </si>
+  <si>
+    <t>Differential IK solver with joint/velocity limits and collision avoidance, supporting closed-loop constraints.</t>
+  </si>
+  <si>
+    <t>Formulates IK as a quadratic program for real-time solutions; robust to redundancy and collision avoidance.</t>
+  </si>
+  <si>
+    <t>Graph-based and distance-geometry approach to IK, offering an alternative to traditional numerical solvers.</t>
+  </si>
+  <si>
+    <t>Generative graph-model-based learning IK framework, enabling cross-robot generalization.</t>
+  </si>
+  <si>
+    <t>Uses normalizing flows to learn the distribution of IK solutions, capable of handling multiple solutions and generalizing to unseen poses.</t>
+  </si>
+  <si>
+    <t>IKBT (Behavior Tree)</t>
+  </si>
+  <si>
+    <t>Organizes symbolic/analytic IK solving steps into behavior trees, allowing composable reasoning pipelines.</t>
+  </si>
+  <si>
+    <t>IKPy</t>
+  </si>
+  <si>
+    <t>tinyik</t>
+  </si>
+  <si>
+    <t>Minimal Python IK solver, useful for teaching and quick prototyping of small-scale systems.</t>
+  </si>
+  <si>
+    <t>rpiRobotics/ik-geo</t>
+  </si>
+  <si>
+    <t>Educational geometric IK implementation; good reference for understanding analytic geometry methods.</t>
+  </si>
+  <si>
+    <t>Analytical and redundancy-resolution solver for 7-DOF KUKA iiwa, representing 7-DOF arms.</t>
+  </si>
+  <si>
+    <t>Analytical IK solver for NAO humanoid robot, with well-documented implementation and publications.</t>
+  </si>
+  <si>
+    <t>Python implementation of kinematics (including IK) for UR series manipulators.</t>
+  </si>
+  <si>
+    <t>IK solver for Delta parallel robots, covering the parallel manipulator family.</t>
+  </si>
+  <si>
+    <t>IK implementation for Stewart platforms, representing 6-DOF parallel mechanisms.</t>
+  </si>
+  <si>
+    <t>Rigid Body Dynamics Library, includes damped least-squares iterative IK API; widely used as a dynamics base.</t>
+  </si>
+  <si>
+    <t>A fork/extension of RBDL providing similar IK interfaces; useful for comparison and validation.</t>
+  </si>
+  <si>
+    <t>Orocos KDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Close source, can not get soruce code, but widely use </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/how_to_guides/trac_ik/trac_ik_tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orocos/orocos_kinematics_dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKFast (OpenRAVE / MoveIt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/examples/ikfast/ikfast_tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPW Kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Jmeyer1292/opw_kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick-IK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/how_to_guides/pick_ik/pick_ik_tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMA Kinematics Plugin (MoveIt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/humble/doc/examples/kinematics_configuration/kinematics_configuration_tutorial.html#the-lma-kinematics-plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesseract Kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/tesseract-robotics/tesseract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TAMS-Group/bio_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RethinkRobotics sns_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/RethinkRobotics-opensource/sns_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASCLIK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/mahaarbo/casclik</t>
+  </si>
+  <si>
+    <t>pink (Pinocchio-based IK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink (MuJoCo-based IK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/stephane-caron/pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kevinzakka/mink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QP_IK_solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/SinaMirrazavi/QP_IK_solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraphIK (UTIAS-STARS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/utiasSTARS/GraphIK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/utiasSTARS/generative-graphik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generative-graphik </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/uw-biorobotics/IKBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/jstmn/ikflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General-purpose Python IK library; supports URDF/DH input and multiple joint types; widely used in education and prototyping.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Phylliade/ikpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/lanius/tinyik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rpiRobotics/ik-geo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuebot/kuka_iiwa_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/neuebot/kuka_iiwa_ik</t>
+  </si>
+  <si>
+    <t>NAOKinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kouretes/NAOKinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc-capolei/python-Universal-robot-kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/mc-capolei/python-Universal-robot-kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinkersprojects/Delta-Kinematics-Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/tinkersprojects/Delta-Kinematics-Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbartle/Stewart_Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/hbartle/Stewart_Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rbdl/rbdl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotDynamicsLibrary (EricVoll)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/EricVoll/RobotDynamicsLibrary</t>
+  </si>
+  <si>
+    <t>Drake IK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/RobotLocomotion/drake?tab=readme-ov-file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/stack-of-tasks/pinocchio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Reason for Inclusion</t>
-  </si>
-  <si>
-    <t>Widely used numerical IK/Jacobian solver in ROS and industry; mature implementation, serves as a baseline reference.</t>
-  </si>
-  <si>
-    <t>TRAC-IK</t>
-  </si>
-  <si>
-    <t>Faster and more reliable than KDL in ROS contexts, higher success rates, commonly used as a drop-in replacement.</t>
-  </si>
-  <si>
-    <t>Analytical IK “compiler” that generates highly optimized C++ solvers for specific arms; widely adopted in MoveIt.</t>
-  </si>
-  <si>
-    <t>Analytical IK for 6-DOF offset wrist manipulators, very fast and supports many industrial arms.</t>
-  </si>
-  <si>
-    <t>MoveIt/MoveIt2 plugin from PickNik; supports multiple constraints, weight configuration, and offers good performance and usability.</t>
-  </si>
-  <si>
-    <t>Levenberg–Marquardt numerical IK plugin, the traditional baseline solver in MoveIt.</t>
-  </si>
-  <si>
-    <t>Tesseract Kinematics</t>
-  </si>
-  <si>
-    <t>Kinematics interface of the Tesseract ecosystem, integrates multiple solvers (KDL, OPW, etc.) in a production-ready framework.</t>
-  </si>
-  <si>
-    <t>bio_ik</t>
-  </si>
-  <si>
-    <t>Optimization-based multi-objective IK solver (MoveIt plugin), well-suited for complex constraint scenarios.</t>
-  </si>
-  <si>
-    <t>RethinkRobotics sns_ik</t>
-  </si>
-  <si>
-    <t>Null-Space Saturation (SNS) IK solver; supports prioritized tasks and joint limit handling.</t>
-  </si>
-  <si>
-    <t>moveit_whole_body_ik</t>
-  </si>
-  <si>
-    <t>Whole-body and multi-chain IK prototype plugin, good for studying coordinated motion of complex systems.</t>
-  </si>
-  <si>
-    <t>CASCLIK</t>
-  </si>
-  <si>
-    <t>Constraint-based, set-based task-space IK framework supporting multiple task priorities and closed-loop control.</t>
-  </si>
-  <si>
-    <t>pink (Pinocchio-based IK)</t>
-  </si>
-  <si>
-    <t>Differential IK library built on Pinocchio; well-suited for multi-chain and humanoid robots.</t>
-  </si>
-  <si>
-    <t>mink (MuJoCo-based IK)</t>
-  </si>
-  <si>
-    <t>Differential IK solver with joint/velocity limits and collision avoidance, supporting closed-loop constraints.</t>
-  </si>
-  <si>
-    <t>QP_IK_solver (Mirrazavi et al.)</t>
-  </si>
-  <si>
-    <t>Formulates IK as a quadratic program for real-time solutions; robust to redundancy and collision avoidance.</t>
-  </si>
-  <si>
-    <t>mrsp/whole_body_ik</t>
-  </si>
-  <si>
-    <t>Research-oriented whole-body IK solver with configurable task priorities and weights.</t>
-  </si>
-  <si>
-    <t>GraphIK (UTIAS-STARS)</t>
-  </si>
-  <si>
-    <t>Graph-based and distance-geometry approach to IK, offering an alternative to traditional numerical solvers.</t>
-  </si>
-  <si>
-    <t>generative-graphik (UTIAS-STARS)</t>
-  </si>
-  <si>
-    <t>Generative graph-model-based learning IK framework, enabling cross-robot generalization.</t>
-  </si>
-  <si>
-    <t>IKFlow</t>
-  </si>
-  <si>
-    <t>Uses normalizing flows to learn the distribution of IK solutions, capable of handling multiple solutions and generalizing to unseen poses.</t>
-  </si>
-  <si>
-    <t>IKBT (Behavior Tree)</t>
-  </si>
-  <si>
-    <t>Organizes symbolic/analytic IK solving steps into behavior trees, allowing composable reasoning pipelines.</t>
-  </si>
-  <si>
-    <t>IKPy</t>
-  </si>
-  <si>
-    <t>General-purpose Python IK library; supports URDF/DH input and multiple joint types; widely used in education and prototyping.</t>
-  </si>
-  <si>
-    <t>tinyik</t>
-  </si>
-  <si>
-    <t>Minimal Python IK solver, useful for teaching and quick prototyping of small-scale systems.</t>
-  </si>
-  <si>
-    <t>rpiRobotics/ik-geo</t>
-  </si>
-  <si>
-    <t>Educational geometric IK implementation; good reference for understanding analytic geometry methods.</t>
-  </si>
-  <si>
-    <t>neuebot/kuka_iiwa_ik</t>
-  </si>
-  <si>
-    <t>Analytical and redundancy-resolution solver for 7-DOF KUKA iiwa, representing 7-DOF arms.</t>
-  </si>
-  <si>
-    <t>NAOKinematics</t>
-  </si>
-  <si>
-    <t>Analytical IK solver for NAO humanoid robot, with well-documented implementation and publications.</t>
-  </si>
-  <si>
-    <t>mc-capolei/python-Universal-robot-kinematics</t>
-  </si>
-  <si>
-    <t>Python implementation of kinematics (including IK) for UR series manipulators.</t>
-  </si>
-  <si>
-    <t>OPW Kinematics (duplicate entry for mechanism coverage)</t>
-  </si>
-  <si>
-    <t>Included to explicitly represent the common 6R industrial arm family with offset wrist.</t>
-  </si>
-  <si>
-    <t>tinkersprojects/Delta-Kinematics-Library</t>
-  </si>
-  <si>
-    <t>IK solver for Delta parallel robots, covering the parallel manipulator family.</t>
-  </si>
-  <si>
-    <t>hbartle/Stewart_Platform</t>
-  </si>
-  <si>
-    <t>IK implementation for Stewart platforms, representing 6-DOF parallel mechanisms.</t>
-  </si>
-  <si>
-    <t>RBDL</t>
-  </si>
-  <si>
-    <t>Rigid Body Dynamics Library, includes damped least-squares iterative IK API; widely used as a dynamics base.</t>
-  </si>
-  <si>
-    <t>RobotDynamicsLibrary (EricVoll)</t>
-  </si>
-  <si>
-    <t>A fork/extension of RBDL providing similar IK interfaces; useful for comparison and validation.</t>
-  </si>
-  <si>
-    <t>Orocos KDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Close source, can not get soruce code, but widely use </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pending</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)MATLAB &amp; Simulink Robotics System Toolbox</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/how_to_guides/trac_ik/trac_ik_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/orocos/orocos_kinematics_dynamics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKFast (OpenRAVE / MoveIt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/examples/ikfast/ikfast_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPW Kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Jmeyer1292/opw_kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pick-IK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/how_to_guides/pick_ik/pick_ik_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMA Kinematics Plugin (MoveIt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/humble/doc/examples/kinematics_configuration/kinematics_configuration_tutorial.html#the-lma-kinematics-plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part of MIT’s Drake robotics toolbox; provides a well-maintained, optimization-based IK solver supporting position/orientation constraints, joint limits, and redundancy resolution. Widely used in academia and industry, making it a strong representative of state-of-the-art optimization IK.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-performance rigid-body dynamics library developed by INRIA; includes fast Jacobian and differential IK computation. Frequently used in legged robotics and humanoid research, with excellent documentation and active community support.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mathworks.com/products/robotics.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAB &amp; Simulink Robotics System Toolbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +410,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354D475D-67CE-47C1-879A-864A87C4D259}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,12 +791,15 @@
     <col min="4" max="4" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -702,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -716,13 +821,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -730,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -744,13 +849,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -758,13 +863,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -772,288 +877,349 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="228" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+      <c r="B11" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
+      <c r="B16" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="185.25" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="228" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="199.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1064,6 +1230,26 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{46257C39-5BD0-4E0F-82DE-F51185D7AC5E}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{A5D6C053-25C2-4D69-8E16-64542131C8FF}"/>
     <hyperlink ref="D7" r:id="rId5" location="the-lma-kinematics-plugin" xr:uid="{64C6DC26-5389-4561-806B-09D910B907E6}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{877A4161-2F74-4120-8458-007B869F6808}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{EB208228-53E8-4BEC-B279-DCFD2E3D7FEE}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{09DA4EF2-973B-4CEE-92A6-C07E44F61A9A}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{8558024D-AB6E-4E22-8BA0-9A54E2E44AA9}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{AA5FFC52-577C-4E4B-8249-CB28513BAD1F}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{B477B5E8-3A6A-4E1A-9B0C-CACC9E0FEBF2}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{0DBF26C7-B4F7-4A38-8B49-E53C2EF4113D}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{A9946ABD-5633-4DD6-B240-7EF0E88EAC39}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{60736914-D561-4CE5-88AB-3D541B997633}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{FC9128E5-AE14-4A26-9E20-C0B418C115E6}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{5628DB8F-F9F4-4AE8-9C2A-2F69359936A5}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{5E1E8C0E-C436-4478-AF98-A307EC56499A}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{D2ED9F77-6F13-4505-BB93-C8D02BF77E0D}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{EF32EB37-AD6B-42A7-968A-16EB7847ADB4}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{334A8B43-0B47-42F8-B0BC-1F923B2C111C}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{47BFFC86-DEA4-4994-858F-668A807D0B97}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{BD658A75-9E84-41EA-AE5A-055FC061E387}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{D02458EE-4797-42CD-9F33-007C9109496E}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{01D23E18-CA30-477D-8CC0-5A45DE398E76}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{18AEEAF3-98E0-4149-9273-520756D58AA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StateOfPractice/DomainMeasurements/InverseKinematics-Ryan/Software_List.xlsx
+++ b/StateOfPractice/DomainMeasurements/InverseKinematics-Ryan/Software_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course\ResearchProject\AIMSS\StateOfPractice\DomainMeasurements\InverseKinematics-Ryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8AEB01-9BD3-4257-863A-1A03D8E440C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289F5DD-A9DB-4D66-B3F9-0F2B0D0D43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2279FB42-8099-4FD6-9EF2-F606B56203F5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2279FB42-8099-4FD6-9EF2-F606B56203F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,336 +39,475 @@
     <t>Software / Library</t>
   </si>
   <si>
-    <t>Widely used numerical IK/Jacobian solver in ROS and industry; mature implementation, serves as a baseline reference.</t>
+    <t>Orocos KDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/how_to_guides/trac_ik/trac_ik_tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/orocos/orocos_kinematics_dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKFast (OpenRAVE / MoveIt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPW Kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Jmeyer1292/opw_kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick-IK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/how_to_guides/pick_ik/pick_ik_tutorial.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesseract Kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/tesseract-robotics/tesseract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TAMS-Group/bio_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/RethinkRobotics-opensource/sns_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink (Pinocchio-based IK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink (MuJoCo-based IK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/stephane-caron/pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kevinzakka/mink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/uw-biorobotics/IKBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/jstmn/ikflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Phylliade/ikpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rpiRobotics/ik-geo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuebot/kuka_iiwa_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rbdl/rbdl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drake IK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/RobotLocomotion/drake?tab=readme-ov-file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/stack-of-tasks/pinocchio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason for Inclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orocos Kinematics and Dynamics Library (KDL) is a mature and widely adopted numerical IK and Jacobian solver in the robotics community. Its GitHub repository shows 819 stars, 430 forks, and over 1,200 commits, with recent activity as of three weeks ago, indicating long-term community adoption and ongoing maintenance. KDL is the default numerical solver in ROS MoveIt tutorials, making it a de facto baseline for inverse kinematics benchmarking. Its stable implementation and industry use make it an ideal reference point for comparing newer or alternative IK solvers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TRAC-IK</t>
-  </si>
-  <si>
-    <t>Faster and more reliable than KDL in ROS contexts, higher success rates, commonly used as a drop-in replacement.</t>
-  </si>
-  <si>
-    <t>Analytical IK “compiler” that generates highly optimized C++ solvers for specific arms; widely adopted in MoveIt.</t>
-  </si>
-  <si>
-    <t>Analytical IK for 6-DOF offset wrist manipulators, very fast and supports many industrial arms.</t>
-  </si>
-  <si>
-    <t>MoveIt/MoveIt2 plugin from PickNik; supports multiple constraints, weight configuration, and offers good performance and usability.</t>
-  </si>
-  <si>
-    <t>Levenberg–Marquardt numerical IK plugin, the traditional baseline solver in MoveIt.</t>
-  </si>
-  <si>
-    <t>Kinematics interface of the Tesseract ecosystem, integrates multiple solvers (KDL, OPW, etc.) in a production-ready framework.</t>
-  </si>
-  <si>
-    <t>Optimization-based multi-objective IK solver (MoveIt plugin), well-suited for complex constraint scenarios.</t>
-  </si>
-  <si>
-    <t>Null-Space Saturation (SNS) IK solver; supports prioritized tasks and joint limit handling.</t>
-  </si>
-  <si>
-    <t>Constraint-based, set-based task-space IK framework supporting multiple task priorities and closed-loop control.</t>
-  </si>
-  <si>
-    <t>Differential IK library built on Pinocchio; well-suited for multi-chain and humanoid robots.</t>
-  </si>
-  <si>
-    <t>Differential IK solver with joint/velocity limits and collision avoidance, supporting closed-loop constraints.</t>
-  </si>
-  <si>
-    <t>Formulates IK as a quadratic program for real-time solutions; robust to redundancy and collision avoidance.</t>
-  </si>
-  <si>
-    <t>Graph-based and distance-geometry approach to IK, offering an alternative to traditional numerical solvers.</t>
-  </si>
-  <si>
-    <t>Generative graph-model-based learning IK framework, enabling cross-robot generalization.</t>
-  </si>
-  <si>
-    <t>Uses normalizing flows to learn the distribution of IK solutions, capable of handling multiple solutions and generalizing to unseen poses.</t>
-  </si>
-  <si>
-    <t>IKBT (Behavior Tree)</t>
-  </si>
-  <si>
-    <t>Organizes symbolic/analytic IK solving steps into behavior trees, allowing composable reasoning pipelines.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRAC-IK is actively maintained with a dedicated ROS 2 rolling-devel branch and frequent updates. It is officially supported </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as a MoveIt kinematics plugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (trac_ik_kinematics_plugin), making it a widely adopted drop-in replacement for the default KDL solver in ROS and MoveIt pipelines.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IKFast is an analytical inverse kinematics “compiler” that generates highly optimized C++ solvers for specific robot kinematic chains. The generated solvers provide millisecond-level solution times and guarantee to return all possible solutions, making them suitable for real-time applications. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IKFast is tightly integrated with MoveIt as one of its officially supported kinematics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plugins and is widely used in both industry and research for robots requiring deterministic, high-speed IK computation. Its inclusion ensures coverage of a state-of-the-practice analytical approach, complementing numerical and optimization-based solvers in our comparison.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPW Kinematics is a fast, closed-form analytical inverse kinematics solver specifically designed for 6-DOF offset wrist manipulators, a common configuration in industrial robotics. The package is actively maintained and offered as a MoveIt kinematics plugin, making it easy to integrate into ROS-based systems. Its popularity in industrial robot applications and its speed advantages over numerical solvers make it an essential representative of analytical IK methods in our study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick-IK is an advanced kinematics solver developed and maintained by PickNik Robotics, the primary maintainers of MoveIt. Pick-IK is officially documented and supported in MoveIt 2, and has become the recommended solver for many modern ROS 2 applications. Its active development, rich feature set, and strong community adoption make it an important representative of state-of-the-practice ROS 2 kinematics solutions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesseract is a modern motion-planning and manipulation framework that integrates multiple inverse kinematics solvers (KDL, OPW, etc.) into a unified, production-ready interface. Its tesseract_kinematics component provides a flexible plugin architecture for switching between solvers, enabling benchmarking and multi-solver planning pipelines.
+The project is actively maintained, with over 2,000 commits, 317 GitHub stars, and a recent release (v0.32.0) just 3 weeks ago, indicating strong community adoption and development momentum. Including Tesseract Kinematics ensures our study covers a multi-solver integration framework, representing the state of the practice for modular, production-grade IK solutions in industrial and research contexts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bio_ik is a MoveIt kinematics_base plugin implementing optimization-based multi-objective inverse kinematics using genetic algorithms and particle swarm optimization. It is well-suited for solving IK problems with complex constraints, such as avoiding collisions, respecting joint limits, and optimizing secondary criteria (e.g., manipulability, distance to seed).
+The project has 243 GitHub stars, 89 forks, and 185 commits, with the most recent update just 7 months ago, indicating ongoing maintenance and community interest. Including bio_ik ensures that our study covers a stochastic, evolutionary approach to IK that complements deterministic numerical and analytical solvers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS IKL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sns_ik (Saturation in the Null Space IK Library) implements the SNS algorithm, which allows prioritized task-space control with joint-limit handling and null-space optimization. This method is widely cited in robotics literature as a canonical approach to solving multi-task IK problems, where secondary objectives (e.g., posture optimization) are satisfied in the null space of the primary task.
+Although the repository shows limited recent activity (last commit 9 years ago, last release for ROS Kinetic in 2017, 105 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 44 forks), it remains an important reference implementation for prioritized IK algorithms. Including sns_ik ensures our study covers null-space saturation approaches, allowing comparison between classical prioritized IK techniques and more modern optimization-based solvers.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drake is a model-based design and verification toolbox developed by MIT, widely used in both academia and industry for robotics research. Its inverse kinematics module provides a well-maintained, optimization-based solver supporting position/orientation constraints, joint limits, redundancy resolution, and nonlinear constraints.
+The project is extremely active, with 3.7k GitHub stars, 1.3k forks, over 33,000 commits, and a recent release (v1.45.0) just 2 weeks ago, demonstrating strong community adoption and continuous development. Including Drake ensures coverage of a state-of-the-art optimization-based IK solver, representing one of the most mature and extensible solutions available for complex robotics applications.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink is a Python-based inverse kinematics library built on Pinocchio, providing a high-level interface for differential IK and quadratic programming (QP)-based task-space control. It supports joint/velocity limits and multi-task control, making it well-suited for humanoid and multi-chain robots.
+The project shows active maintenance with 554 GitHub stars, 37 forks, over 1,200 commits, and a recent release (v3.4.0) just 2 months ago, demonstrating strong community engagement and continued development. Including pink ensures coverage of a modern, actively maintained Pinocchio-based IK framework, bridging academic research and practical robotics applications.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink is a Python library for inverse kinematics based on MuJoCo, offering a modern API for differential IK with support for joint/velocity limits, collision avoidance, and closed-loop constraints. It is designed for research and rapid prototyping, making it suitable for reinforcement learning and motion control applications where differentiable physics is required.
+The project is actively maintained with 908 GitHub stars, 68 forks, 216 commits, and a recent release (v0.0.13) just 2 weeks ago, demonstrating strong community interest and development momentum. Including mink ensures representation of a MuJoCo-integrated, differentiable IK approach, expanding our comparison to cover simulation-oriented, learning-friendly IK solvers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinocchio is a fast and flexible library for rigid body dynamics and kinematics, providing analytical derivatives of dynamics and Jacobians, as well as efficient inverse kinematics and differential IK computation. It is widely used in research on legged robots, humanoid control, and motion planning, and has become one of the de facto standard libraries for academic robotics projects.
+The project is highly active, with 2.7k GitHub stars, 458 forks, nearly 10,000 commits, and a recent release (v3.8.0) just days ago, indicating strong and ongoing community adoption. Including Pinocchio ensures that our study covers a core dynamics and kinematics library that underpins many modern robotics frameworks (e.g., pink), making it a critical representative of analytical and derivative-based IK solutions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the selection criteria outlined in the methodology paper, IKFlow satisfies the key requirements for inclusion. It falls clearly within the scope of the study, as it is an open-source implementation dedicated entirely to solving inverse kinematics problems. The repository is well-documented and provides clear installation instructions, and recent commits (within the last three months) confirm that it is functional and actively maintained. Its latest release in May 2024 demonstrates ongoing development, satisfying the activity criterion.
+Although its community adoption is still moderate (79 stars and 13 forks), IKFlow represents a state-of-the-art generative approach to inverse kinematics, which is valuable for capturing the diversity of modern IK methods. Retaining IKFlow ensures that the final list covers not only established numerical and analytical solvers but also emerging machine-learning-based techniques, thereby aligning with the methodology’s recommendation to provide a representative and authoritative view of the state of the practice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IKBT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKBT is a Python-based system for generating closed-form solutions to inverse kinematics problems using a symbolic approach combined with behavior trees for action selection. It produces fully symbolic solutions and can export results in LaTeX, Python, and C++, making it particularly valuable for teaching, research, and composable reasoning pipelines.
+The repository remains actively maintained, with a major rewrite of the solution set generation process completed in June 2024, confirming that the project is still evolving and supported. With 201 GitHub stars, 37 forks, and 236 commits, IKBT has a moderate but steady community adoption. Its unique ability to generate symbolic IK solutions and its educational value justify its inclusion, as it represents a symbolic and composable reasoning-based approach to IK that is not covered by other solvers in the list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IKPy</t>
-  </si>
-  <si>
-    <t>tinyik</t>
-  </si>
-  <si>
-    <t>Minimal Python IK solver, useful for teaching and quick prototyping of small-scale systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKPy is a general-purpose Python library for inverse kinematics that supports both URDF and DH parameter inputs, and multiple joint types. It is widely used in education, research, and prototyping due to its simplicity, readability, and ease of integration with Python-based robotics stacks.
+The project has 917 GitHub stars, 169 forks, and nearly 600 commits, with the latest release (v3.4.2) in August 2024, confirming that it is still actively maintained. Its wide adoption and accessibility make it an important representative of lightweight, general-purpose IK libraries in Python, complementing C++-based solvers like KDL and analytical code generators like IKFast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rpiRobotics/ik-geo</t>
-  </si>
-  <si>
-    <t>Educational geometric IK implementation; good reference for understanding analytic geometry methods.</t>
-  </si>
-  <si>
-    <t>Analytical and redundancy-resolution solver for 7-DOF KUKA iiwa, representing 7-DOF arms.</t>
-  </si>
-  <si>
-    <t>Analytical IK solver for NAO humanoid robot, with well-documented implementation and publications.</t>
-  </si>
-  <si>
-    <t>Python implementation of kinematics (including IK) for UR series manipulators.</t>
-  </si>
-  <si>
-    <t>IK solver for Delta parallel robots, covering the parallel manipulator family.</t>
-  </si>
-  <si>
-    <t>IK implementation for Stewart platforms, representing 6-DOF parallel mechanisms.</t>
-  </si>
-  <si>
-    <t>Rigid Body Dynamics Library, includes damped least-squares iterative IK API; widely used as a dynamics base.</t>
-  </si>
-  <si>
-    <t>A fork/extension of RBDL providing similar IK interfaces; useful for comparison and validation.</t>
-  </si>
-  <si>
-    <t>Orocos KDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Close source, can not get soruce code, but widely use </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/how_to_guides/trac_ik/trac_ik_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/orocos/orocos_kinematics_dynamics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKFast (OpenRAVE / MoveIt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/examples/ikfast/ikfast_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPW Kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Jmeyer1292/opw_kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pick-IK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/main/doc/how_to_guides/pick_ik/pick_ik_tutorial.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LMA Kinematics Plugin (MoveIt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moveit.picknik.ai/humble/doc/examples/kinematics_configuration/kinematics_configuration_tutorial.html#the-lma-kinematics-plugin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tesseract Kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/tesseract-robotics/tesseract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bio_ik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/TAMS-Group/bio_ik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RethinkRobotics sns_ik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/RethinkRobotics-opensource/sns_ik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASCLIK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/mahaarbo/casclik</t>
-  </si>
-  <si>
-    <t>pink (Pinocchio-based IK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mink (MuJoCo-based IK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/stephane-caron/pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/kevinzakka/mink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QP_IK_solver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/SinaMirrazavi/QP_IK_solver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GraphIK (UTIAS-STARS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/utiasSTARS/GraphIK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/utiasSTARS/generative-graphik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generative-graphik </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/uw-biorobotics/IKBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/jstmn/ikflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>General-purpose Python IK library; supports URDF/DH input and multiple joint types; widely used in education and prototyping.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Phylliade/ikpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/lanius/tinyik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/rpiRobotics/ik-geo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neuebot/kuka_iiwa_ik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IK-Geo clearly satisfies the selection criteria outlined in the methodology paper. It is fully within the study’s scope, as it provides a general and complete solution for 6-DOF manipulators using geometric subproblem decomposition. The repository is well-documented, includes MATLAB, C++, Rust, and Python implementations, and provides examples and benchmarking scripts, making it installable and reproducible. It is actively maintained, with README and MATLAB code updates made within the past month (27 days ago), meeting the “recently active” criterion. Although community adoption is moderate (134 stars, 15 forks), the presence of multiple forks — including those from TU Munich and Verdant Evolution that extend its functionality — demonstrates continuing interest and reuse in the robotics research community.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/neuebot/kuka_iiwa_ik</t>
-  </si>
-  <si>
-    <t>NAOKinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/kouretes/NAOKinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mc-capolei/python-Universal-robot-kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/mc-capolei/python-Universal-robot-kinematics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinkersprojects/Delta-Kinematics-Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/tinkersprojects/Delta-Kinematics-Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbartle/Stewart_Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/hbartle/Stewart_Platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/rbdl/rbdl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RobotDynamicsLibrary (EricVoll)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/EricVoll/RobotDynamicsLibrary</t>
-  </si>
-  <si>
-    <t>Drake IK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/RobotLocomotion/drake?tab=readme-ov-file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/stack-of-tasks/pinocchio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reason for Inclusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part of MIT’s Drake robotics toolbox; provides a well-maintained, optimization-based IK solver supporting position/orientation constraints, joint limits, and redundancy resolution. Widely used in academia and industry, making it a strong representative of state-of-the-art optimization IK.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-performance rigid-body dynamics library developed by INRIA; includes fast Jacobian and differential IK computation. Frequently used in legged robotics and humanoid research, with excellent documentation and active community support.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mathworks.com/products/robotics.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATLAB &amp; Simulink Robotics System Toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This repository provides a complete MATLAB implementation of a redundancy-resolution IK solver for 7-DOF anthropomorphic manipulators, including global configuration control, joint-limit handling, and singularity avoidance. It is directly based on a published algorithm and has been developed and tested with the kinematic structure of the KUKA iiwa R800, making it a precise and well-scoped implementation.
+Although the last update was four years ago, the solver remains functionally complete and relevant for representing 7-DOF redundancy-resolution techniques, which are not widely available in other open-source libraries. Its availability under an open-source license (GPL-3.0) and inclusion of MATLAB code make it reproducible and easy to integrate for benchmarking. Retaining this repository ensures that redundant manipulator IK methods are covered in the study, adding diversity to the final set beyond 6-DOF solutions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBDL is a well-established, highly efficient C++ library that implements core rigid-body dynamics algorithms such as the Articulated Body Algorithm (ABA), Recursive Newton–Euler Algorithm (RNEA), and Composite Rigid Body Algorithm (CRBA). It also includes Jacobian computation, forward and inverse kinematics, contact and collision handling, and closed-loop modeling, making it a comprehensive reference implementation for dynamics and kinematics research.
+From an evaluation perspective, it meets all major criteria:
+Scope – RBDL includes a complete forward and inverse kinematics implementation with damped least-squares iterative IK support, which is directly relevant for inverse kinematics benchmarking.
+Installability / Usability – It is well-documented (with Doxygen support and online documentation), cross-platform, available via vcpkg, and includes examples and test suites that facilitate reproducibility.
+Activity / Age – The repository is actively maintained, with commits as recent as three months ago and a latest release (v3.3.1) in August 2024.
+Community Adoption – RBDL has strong adoption with 660+ stars, 157 forks, and contributions from multiple researchers across academia and industry. It is widely cited in academic literature (e.g., Felis 2017, Autonomous Robots) and recognized as a standard baseline in the field of multibody dynamics.
+Including RBDL ensures that the study covers a dynamics-based IK approach in addition to purely numerical, optimization-based, and geometric solvers. It provides a stable, authoritative baseline for comparing damped least-squares and Jacobian-based iterative IK solutions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IKFastPy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/andyzeng/ikfastpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robotics-toolbox-python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/petercorke/robotics-toolbox-python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKFastPy is a lightweight Python wrapper over OpenRAVE’s IKFast C++ solver for the UR5 arm (with e-series XML models included). It is highly relevant to our study because it directly exposes analytically-generated IKFast solutions to Python, enabling fast runtime performance for real-time control and benchmarking.
+From the perspective of the methodology criteria:
+Scope – The repository’s focus is purely on inverse kinematics, implementing a wrapper for a well-known analytical IK generator (IKFast).
+Usage / Installability – It provides a working demo script (demo.py) and simple build instructions using Cython, making it reproducible and usable.
+Activity / Age – While the last commit was six years ago, the repository remains functional for its purpose (IKFast is a code generator with a stable output). Lack of churn is acceptable for a wrapper of a mature solver.
+Community Adoption – 249 stars and 68 forks indicate a meaningful level of adoption, and the project has been cited in research (e.g., visual servoing and grasping work by Andy Zeng et al.).
+This combination of maturity, reproducibility, and use in research justifies keeping IKFastPy in the candidate list as a representative lightweight wrapper for IKFast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/NxRLab/ModernRobotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern Robotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iDynTree </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/robotology/idyntree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROBOTIS-GIT/open_manipulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ROBOTIS-GIT/open_manipulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robotics Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/roboticslibrary/rl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/krishauser/Klampt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PyTorch Robot Kinematics </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/UM-ARM-Lab/pytorch_kinematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PythonRobotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AtsushiSakai/PythonRobotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJINX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/based-robotics/mjinx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDynTree has 210 stars and 71 forks on GitHub, a relatively strong level of adoption for a research-oriented robotics library. It is part of the broader robotology ecosystem used in iCub humanoid robot research, which indicates sustained usage in academic and industrial robotics communities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robotics Toolbox for Python is one of the most widely used open-source robotics libraries, with strong community adoption and sustained development.
+Community Adoption – The repository has over 2.8k stars, 534 forks, and is used by more than 270 other public projects on GitHub. This level of popularity indicates that it is a de facto reference implementation for many robotics researchers and developers, which aligns with our goal of analyzing representative and influential software.
+Activity / Maintenance – The project remains actively maintained, with commits within the last year and 12 tagged releases (latest v1.1.0 in May 2023). The maintainers continue to review pull requests and manage issues, demonstrating long-term support.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modern Robotics is not just a software package but the official companion code library for the well-known textbook Modern Robotics: Mechanics, Planning, and Control by Kevin Lynch and Frank Park (Cambridge University Press, 2017).
+Educational and Community Significance – Because this textbook is widely adopted for teaching robotics courses around the world, the accompanying library has become a de facto standard for students and researchers learning kinematics, dynamics, and motion planning. The repository has over 2.4k stars and 900+ forks, showing its large user base and continued relevance in academia.
+Maintenance and Stability – The library is mature and stable, with its latest release (v1.1.1) in 2023, and the code is intentionally written for readability and pedagogical clarity rather than maximum performance. This makes it valuable as a reference implementation for understanding core algorithms in robotics.
+Including this project in the analysis ensures coverage of a widely recognized, educationally important library that is representative of how inverse kinematics and related algorithms are taught and applied in research and coursework globally.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dartsim/dart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DART (Dynamic Animation and Robotics Toolkit) is a well-established and actively maintained open-source library for robotics and physics simulation.
+Community Adoption – The project has a strong user base with over 1,000 stars, nearly 300 forks, and 60+ watchers on GitHub, showing significant interest from the robotics and simulation community. Its presence in research and development workflows is evidenced by frequent citations and use in simulation-based robotics projects.
+Recent Activity – The repository is very active, with commits as recent as last week and regular updates to support new features and CI pipelines. The latest release (v6.15.0) was published in November 2024, confirming ongoing development and maintenance.
+Including DART ensures that the analysis covers a widely used, actively maintained library that represents state-of-the-art tools for robot kinematics, dynamics, and simulation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Robot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ros-industrial/universal_robo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The universal_robot repository under ROS-Industrial provides official support packages for Universal Robots manipulators, including configurations for MoveIt and URDF descriptions.
+Community Adoption – With over 1.3k stars, 1.1k forks, and contributions from more than 50 developers, this repository has one of the largest user bases in the robotics software ecosystem. It is widely used in both academic research and industrial applications, reflecting its central role in the ROS community.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The open_manipulator repository by ROBOTIS is a widely adopted and actively maintained project for ROS-based open manipulators. With over 500 stars, nearly 200 forks, and 26 tagged releases, it demonstrates strong community interest and long-term stability. Recent commits and version updates (as recent as two weeks ago) indicate continuous development and support, making it a reliable and popular choice for research and teaching applications in robot kinematics and control.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Klampt repository is an established locomotion and manipulation planning toolkit with steady development over the years. It has over 400 stars and nearly 100 forks on GitHub, indicating a healthy level of adoption and reuse. Although the latest tagged release is older, the repository continues to receive recent commits (as recent as last month), showing that it remains maintained and relevant for research and development purposes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Robotics Library (RL) is a well-established C++ library for rigid-body kinematics, dynamics, motion planning, and control. It has over 1.1k stars and 236 forks on GitHub, showing a strong user base and wide adoption. The project is actively maintained, with recent commits within the last 5 months, indicating that it continues to receive updates and bug fixes. Its longevity and steady activity make it a reliable choice for robotics research and development.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The PyTorch Kinematics library is a well-maintained project that brings differentiable forward and inverse kinematics into the PyTorch ecosystem, making it popular for robotics research involving learning-based control and differentiable programming. It has 660 stars and 56 forks, indicating a healthy level of adoption. The repository is active, with commits as recent as two weeks ago and regular maintenance over the past year, which satisfies the criterion for recency and community interest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PythonRobotics is one of the most widely adopted repositories in robotics education and research. With 25.9k stars and 6.9k forks, it has an exceptionally large community of users and contributors. The project is very active, with recent commits just days ago, and is commonly used as both a teaching resource and a practical reference for robotics algorithms. Its popularity and continuous maintenance make it highly relevant for inclusion in the software analysis.</t>
+  </si>
+  <si>
+    <t>mjinx is a relatively new but actively maintained numerical inverse kinematics solver built on JAX + MJX. The repository has received 114 stars and shows consistent development, with multiple commits within the past 6–11 months and recent updates to remove CUDA dependency and improve examples. Although its community size is smaller compared to older projects, its modern implementation and ongoing maintenance indicate growing adoption in research environments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moveit.picknik.ai/main/doc/examples/ikfast/ikfast_tutorial.htmlhttps://github.com/rdiankov/openrave/tree/master/plugins/ikfastsolvers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +557,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +617,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354D475D-67CE-47C1-879A-864A87C4D259}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,430 +957,430 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="6" customFormat="1" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="313.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
+      <c r="B30" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1229,27 +1390,32 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{8129BE12-8811-43BF-A7B2-138B6C09777D}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{46257C39-5BD0-4E0F-82DE-F51185D7AC5E}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{A5D6C053-25C2-4D69-8E16-64542131C8FF}"/>
-    <hyperlink ref="D7" r:id="rId5" location="the-lma-kinematics-plugin" xr:uid="{64C6DC26-5389-4561-806B-09D910B907E6}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{877A4161-2F74-4120-8458-007B869F6808}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{EB208228-53E8-4BEC-B279-DCFD2E3D7FEE}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{09DA4EF2-973B-4CEE-92A6-C07E44F61A9A}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{8558024D-AB6E-4E22-8BA0-9A54E2E44AA9}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{AA5FFC52-577C-4E4B-8249-CB28513BAD1F}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{B477B5E8-3A6A-4E1A-9B0C-CACC9E0FEBF2}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{0DBF26C7-B4F7-4A38-8B49-E53C2EF4113D}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{A9946ABD-5633-4DD6-B240-7EF0E88EAC39}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{60736914-D561-4CE5-88AB-3D541B997633}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{FC9128E5-AE14-4A26-9E20-C0B418C115E6}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{5628DB8F-F9F4-4AE8-9C2A-2F69359936A5}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{5E1E8C0E-C436-4478-AF98-A307EC56499A}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{D2ED9F77-6F13-4505-BB93-C8D02BF77E0D}"/>
-    <hyperlink ref="D23" r:id="rId19" xr:uid="{EF32EB37-AD6B-42A7-968A-16EB7847ADB4}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{334A8B43-0B47-42F8-B0BC-1F923B2C111C}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{47BFFC86-DEA4-4994-858F-668A807D0B97}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{BD658A75-9E84-41EA-AE5A-055FC061E387}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{D02458EE-4797-42CD-9F33-007C9109496E}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{01D23E18-CA30-477D-8CC0-5A45DE398E76}"/>
-    <hyperlink ref="D31" r:id="rId25" xr:uid="{18AEEAF3-98E0-4149-9273-520756D58AA6}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{877A4161-2F74-4120-8458-007B869F6808}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{EB208228-53E8-4BEC-B279-DCFD2E3D7FEE}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{09DA4EF2-973B-4CEE-92A6-C07E44F61A9A}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{8558024D-AB6E-4E22-8BA0-9A54E2E44AA9}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{AA5FFC52-577C-4E4B-8249-CB28513BAD1F}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{B477B5E8-3A6A-4E1A-9B0C-CACC9E0FEBF2}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{A9946ABD-5633-4DD6-B240-7EF0E88EAC39}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{FC9128E5-AE14-4A26-9E20-C0B418C115E6}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{5628DB8F-F9F4-4AE8-9C2A-2F69359936A5}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{5E1E8C0E-C436-4478-AF98-A307EC56499A}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{EF32EB37-AD6B-42A7-968A-16EB7847ADB4}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{01D23E18-CA30-477D-8CC0-5A45DE398E76}"/>
+    <hyperlink ref="D4" r:id="rId17" xr:uid="{90DD2D06-1DF8-4E2C-9E40-60FE5A48F062}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{C9F68173-1809-428F-84D4-410B1D8A2E1D}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{1DC6E1FB-715F-4EAB-B9A0-8E00E3D051F7}"/>
+    <hyperlink ref="D15" r:id="rId20" xr:uid="{ACA000CB-6943-414C-BE35-4B7958BF6E42}"/>
+    <hyperlink ref="D18" r:id="rId21" xr:uid="{56E3C575-13ED-41AB-AD54-F9D23646A6B7}"/>
+    <hyperlink ref="D7" r:id="rId22" xr:uid="{D1FADBCA-9308-49D4-9813-A5E5B6C88229}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{85445B44-1C78-4E7D-8FF5-9C38828D1522}"/>
+    <hyperlink ref="D27" r:id="rId24" xr:uid="{FABF452C-44A4-4DB4-BE0A-949B8E03A630}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{DD337227-2550-4879-ADB7-27C152B9FB57}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{E7C94B87-1585-4E6B-BCFC-27870C80DC8F}"/>
+    <hyperlink ref="D30" r:id="rId27" xr:uid="{E8CA3624-250C-4AFA-9CE2-9453C6BE28D1}"/>
+    <hyperlink ref="D31" r:id="rId28" xr:uid="{3D980D9C-D083-45E4-89AE-E6764E00AD7F}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{B232C222-8DEB-49C5-BA8F-31E571BDC2D6}"/>
+    <hyperlink ref="D22" r:id="rId30" xr:uid="{A1811746-5782-41F5-BC59-BA450215E1E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
